--- a/out/production/HybridFrameWork/testing/dataEngine/TestSuite1.xlsx
+++ b/out/production/HybridFrameWork/testing/dataEngine/TestSuite1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="155">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>Test case will be not executed</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>TestCase5</t>
@@ -1271,13 +1268,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3776,7 +3773,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3808,7 +3805,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
@@ -3823,10 +3820,10 @@
         <v>33</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="3"/>
       <c r="G2" s="11" t="s">
@@ -3834,7 +3831,7 @@
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H4)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>39</v>
@@ -3844,11 +3841,11 @@
         <v>0</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L2" s="26"/>
       <c r="M2" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N2" s="28"/>
     </row>
@@ -3857,10 +3854,10 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="3"/>
       <c r="G3" s="11" t="s">
@@ -3868,7 +3865,7 @@
       </c>
       <c r="H3" s="12">
         <f>COUNTIF(C2:C44,"Yes")</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>41</v>
@@ -3897,10 +3894,10 @@
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="3"/>
       <c r="G4" s="11" t="s">
@@ -3908,7 +3905,7 @@
       </c>
       <c r="H4" s="12">
         <f>COUNTIF(C3:C45,"No")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>40</v>
@@ -3925,7 +3922,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N4" s="21">
         <f>1-N3</f>
@@ -3937,52 +3934,52 @@
         <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>81</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>108</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>53</v>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>53</v>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>52</v>
@@ -3994,7 +3991,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>52</v>
@@ -4006,12 +4003,12 @@
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4073,7 +4070,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -4083,118 +4080,118 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2"/>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="6"/>
@@ -4270,14 +4267,14 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4288,7 +4285,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -4297,7 +4294,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4327,11 +4324,11 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="2"/>
@@ -4344,13 +4341,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -4360,16 +4357,16 @@
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="2"/>
@@ -4379,19 +4376,19 @@
         <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -4400,7 +4397,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -4475,12 +4472,12 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4502,7 +4499,7 @@
       </c>
       <c r="G3" s="2"/>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4519,7 +4516,7 @@
         <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>50</v>
@@ -4540,7 +4537,7 @@
         <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>29</v>
@@ -4555,10 +4552,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
@@ -4571,13 +4568,13 @@
         <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -4590,19 +4587,19 @@
         <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -4611,19 +4608,19 @@
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -4632,10 +4629,10 @@
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
@@ -4710,14 +4707,14 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4741,7 +4738,7 @@
       </c>
       <c r="G3" s="2"/>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4758,7 +4755,7 @@
         <v>47</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>31</v>
@@ -4774,10 +4771,10 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -4793,10 +4790,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -4806,11 +4803,11 @@
         <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -4823,11 +4820,11 @@
         <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
@@ -4840,12 +4837,12 @@
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4855,7 +4852,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4932,14 +4929,14 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4950,18 +4947,18 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2"/>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4974,7 +4971,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="2"/>
@@ -4987,14 +4984,14 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -5006,11 +5003,11 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -5020,14 +5017,14 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -5037,17 +5034,17 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -5056,14 +5053,14 @@
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5073,7 +5070,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
@@ -5142,7 +5139,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -5152,25 +5149,25 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -5181,21 +5178,21 @@
       </c>
       <c r="G3" s="2"/>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -5205,16 +5202,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
@@ -5224,16 +5221,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
@@ -5243,16 +5240,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -5262,14 +5259,14 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
@@ -5279,10 +5276,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
@@ -5348,7 +5345,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -5358,25 +5355,25 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -5387,121 +5384,121 @@
       </c>
       <c r="G3" s="2"/>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -5567,7 +5564,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -5577,97 +5574,97 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="2"/>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>137</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5733,7 +5730,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -5743,116 +5740,116 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" s="2"/>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
@@ -5862,44 +5859,44 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
